--- a/r5-LinkedCare-ballot_2023_01/StructureDefinition-at-core-address.xlsx
+++ b/r5-LinkedCare-ballot_2023_01/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T17:21:00+00:00</t>
+    <t>2023-12-06T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
